--- a/02.開発資料/開発環境構築.xlsx
+++ b/02.開発資料/開発環境構築.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18060" windowHeight="8868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="8868"/>
   </bookViews>
   <sheets>
     <sheet name="WEBアプリ開発環境設定" sheetId="1" r:id="rId1"/>
@@ -124,14 +124,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://localhost:8080/books-management/user</t>
+    <t>http://localhost:8080/books-management/</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +161,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,20 +188,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1239,18 +1256,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>236571</xdr:colOff>
-      <xdr:row>1182</xdr:row>
+      <xdr:row>1136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7847</xdr:colOff>
+      <xdr:row>1181</xdr:row>
       <xdr:rowOff>46655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1263,8 +1280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="194938650"/>
-          <a:ext cx="12428571" cy="7761905"/>
+          <a:off x="609600" y="194767200"/>
+          <a:ext cx="13419047" cy="7761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B1135"/>
   <sheetViews>
-    <sheetView topLeftCell="A1137" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A710" sqref="A710"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1601,15 +1616,18 @@
       </c>
     </row>
     <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1135" t="s">
+      <c r="B1135" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B1135" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1617,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
